--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/algotrading2024/interactive broker option june 0dte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4E5F3-CEDB-3740-9628-A03AEDBDEA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7520B4-FF13-D442-9729-593BE06E2E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D982C202-C228-B943-9008-7F4E1271915D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D982C202-C228-B943-9008-7F4E1271915D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,88 +76,88 @@
     <t>P</t>
   </si>
   <si>
-    <t>BANKNIFTY2470352500CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352500PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352600CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352600PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352700CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352700PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352800CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352800PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352900CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470352900PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353000CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353000PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353100CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353100PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353200CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353200PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353300CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353300PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353400CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353400PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353500CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353500PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353600CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353600PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353700CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353700PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353800CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2470353800PE</t>
+    <t>BANKNIFTY2471052500CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052500PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052600CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052600PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052700CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052700PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052800CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052800PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052900CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052900PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053000CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053000PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053100CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053100PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053200CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053200PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053300CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471053300PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052000CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052000PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052100CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052100PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052200CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052200PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052300CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052300PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052400CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY2471052400PE</t>
   </si>
 </sst>
 </file>
@@ -514,12 +514,13 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -562,34 +563,34 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>45476.588113425925</v>
+        <v>45478.733402777776</v>
       </c>
       <c r="C3">
-        <v>617.35</v>
+        <v>716.4</v>
       </c>
       <c r="D3">
-        <v>1197450</v>
+        <v>451890</v>
       </c>
       <c r="E3">
-        <v>23757975</v>
+        <v>6962205</v>
       </c>
       <c r="F3">
-        <v>0.47832296262402363</v>
+        <v>0.13309106718423597</v>
       </c>
       <c r="G3">
-        <v>0.97262991337406468</v>
+        <v>0.80046480928079045</v>
       </c>
       <c r="H3">
-        <v>1.9689677648850726E-4</v>
+        <v>3.4097067557545724E-4</v>
       </c>
       <c r="I3">
-        <v>0.42201009494458452</v>
+        <v>17.223301131650171</v>
       </c>
       <c r="J3">
-        <v>-3.3586184593466442</v>
+        <v>-30.494389764489451</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -597,34 +598,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
-        <v>45476.588518518518</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>5810160</v>
+        <v>1710945</v>
       </c>
       <c r="E4">
-        <v>162143175</v>
+        <v>42022695</v>
       </c>
       <c r="F4">
-        <v>0.47743756559572154</v>
+        <v>0.13309106718423597</v>
       </c>
       <c r="G4">
-        <v>-2.5804227746279662E-2</v>
+        <v>-0.19953519071920955</v>
       </c>
       <c r="H4">
-        <v>1.8776367008082042E-4</v>
+        <v>3.4097067557545724E-4</v>
       </c>
       <c r="I4">
-        <v>0.40179601964840916</v>
+        <v>17.223301131650171</v>
       </c>
       <c r="J4">
-        <v>-3.1360773187805071</v>
+        <v>-20.979370878620216</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -632,34 +633,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
-        <v>45476.588576388887</v>
+        <v>45478.645856481482</v>
       </c>
       <c r="C5">
-        <v>517.5</v>
+        <v>638.4</v>
       </c>
       <c r="D5">
-        <v>477165</v>
+        <v>136155</v>
       </c>
       <c r="E5">
-        <v>23306715</v>
+        <v>2439315</v>
       </c>
       <c r="F5">
-        <v>0.42836960328267371</v>
+        <v>0.13171943766612088</v>
       </c>
       <c r="G5">
-        <v>0.96536249640715799</v>
+        <v>0.76647581167892431</v>
       </c>
       <c r="H5">
-        <v>2.6877164169787068E-4</v>
+        <v>3.7737652323703146E-4</v>
       </c>
       <c r="I5">
-        <v>0.50979691699121155</v>
+        <v>18.865799053981394</v>
       </c>
       <c r="J5">
-        <v>-3.9096180190326777</v>
+        <v>-32.108454457951126</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -667,34 +668,34 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>45476.588472222225</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>3380385</v>
+        <v>381915</v>
       </c>
       <c r="E6">
-        <v>106102335</v>
+        <v>16694400</v>
       </c>
       <c r="F6">
-        <v>0.42727697226400457</v>
+        <v>0.13171943766612088</v>
       </c>
       <c r="G6">
-        <v>-3.4049361338691631E-2</v>
+        <v>-0.23352418832107569</v>
       </c>
       <c r="H6">
-        <v>2.6407722876623641E-4</v>
+        <v>3.7737652323703146E-4</v>
       </c>
       <c r="I6">
-        <v>0.50574811313230139</v>
+        <v>18.865799053981394</v>
       </c>
       <c r="J6">
-        <v>-3.8474215081317977</v>
+        <v>-22.575137458839841</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -702,31 +703,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>45476.588576388887</v>
+        <v>45478.645775462966</v>
       </c>
       <c r="C7">
-        <v>421</v>
+        <v>570</v>
+      </c>
+      <c r="D7">
+        <v>244965</v>
       </c>
       <c r="E7">
-        <v>33020010</v>
+        <v>7107075</v>
       </c>
       <c r="F7">
-        <v>0.38271888456383207</v>
+        <v>0.13077338822171311</v>
       </c>
       <c r="G7">
-        <v>0.94914045934674773</v>
+        <v>0.72915838403860089</v>
       </c>
       <c r="H7">
-        <v>4.1051555598983926E-4</v>
+        <v>4.1102946173338285E-4</v>
       </c>
       <c r="I7">
-        <v>0.69567216301160828</v>
+        <v>20.402530773982825</v>
       </c>
       <c r="J7">
-        <v>-5.4369682883040014</v>
+        <v>-33.593572865975659</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -734,34 +738,34 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>45476.588576388887</v>
+        <v>45478.645833333336</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>152.15</v>
       </c>
       <c r="D8">
-        <v>4578765</v>
+        <v>564390</v>
       </c>
       <c r="E8">
-        <v>129698220</v>
+        <v>24480555</v>
       </c>
       <c r="F8">
-        <v>0.38271888456383207</v>
+        <v>0.13077338822171311</v>
       </c>
       <c r="G8">
-        <v>-5.0859540653252266E-2</v>
+        <v>-0.27187018699009469</v>
       </c>
       <c r="H8">
-        <v>4.1051555598983926E-4</v>
+        <v>4.1182613533775192E-4</v>
       </c>
       <c r="I8">
-        <v>0.69567216301160828</v>
+        <v>20.440133961889291</v>
       </c>
       <c r="J8">
-        <v>-5.4369682883137855</v>
+        <v>-24.081210932806435</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -769,34 +773,34 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
-        <v>45476.588541666664</v>
+        <v>45478.733402777776</v>
       </c>
       <c r="C9">
-        <v>325.8</v>
+        <v>495</v>
       </c>
       <c r="D9">
-        <v>1377240</v>
+        <v>375360</v>
       </c>
       <c r="E9">
-        <v>57799680</v>
+        <v>18183750</v>
       </c>
       <c r="F9">
-        <v>0.34010225350171336</v>
+        <v>0.13005671264644256</v>
       </c>
       <c r="G9">
-        <v>0.91673479151710413</v>
+        <v>0.68605729234501078</v>
       </c>
       <c r="H9">
-        <v>6.7296996420673414E-4</v>
+        <v>4.4272664590748402E-4</v>
       </c>
       <c r="I9">
-        <v>1.0256926809966385</v>
+        <v>21.853393755572565</v>
       </c>
       <c r="J9">
-        <v>-8.6726358746916503</v>
+        <v>-34.931713096543398</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -804,34 +808,34 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
-        <v>45476.588333333333</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C10">
-        <v>7.95</v>
+        <v>187</v>
       </c>
       <c r="D10">
-        <v>5798685</v>
+        <v>843840</v>
       </c>
       <c r="E10">
-        <v>163488870</v>
+        <v>35021940</v>
       </c>
       <c r="F10">
-        <v>0.33904910740215582</v>
+        <v>0.13005671264644256</v>
       </c>
       <c r="G10">
-        <v>-8.0616043001864313E-2</v>
+        <v>-0.31394270765498922</v>
       </c>
       <c r="H10">
-        <v>6.5877409657575682E-4</v>
+        <v>4.4272664590748402E-4</v>
       </c>
       <c r="I10">
-        <v>1.0010603139086331</v>
+        <v>21.853393755572565</v>
       </c>
       <c r="J10">
-        <v>-8.3201096793273894</v>
+        <v>-25.361799870947998</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -839,34 +843,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
-        <v>45476.588599537034</v>
+        <v>45478.645833333336</v>
       </c>
       <c r="C11">
-        <v>226.6</v>
+        <v>436</v>
       </c>
       <c r="D11">
-        <v>1319250</v>
+        <v>466440</v>
       </c>
       <c r="E11">
-        <v>76945995</v>
+        <v>29430315</v>
       </c>
       <c r="F11">
-        <v>0.29520167573962247</v>
+        <v>0.12997316075106721</v>
       </c>
       <c r="G11">
-        <v>0.86408117722957367</v>
+        <v>0.64036839027754111</v>
       </c>
       <c r="H11">
-        <v>1.1104397098865495E-3</v>
+        <v>4.6706332258759198E-4</v>
       </c>
       <c r="I11">
-        <v>1.4515001786744366</v>
+        <v>23.039863525769317</v>
       </c>
       <c r="J11">
-        <v>-13.532132576659535</v>
+        <v>-36.026991973264757</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -874,34 +878,34 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
-        <v>45476.588587962964</v>
+        <v>45478.733402777776</v>
       </c>
       <c r="C12">
-        <v>13.9</v>
+        <v>222.5</v>
       </c>
       <c r="D12">
-        <v>5852220</v>
+        <v>793185</v>
       </c>
       <c r="E12">
-        <v>167486070</v>
+        <v>38208375</v>
       </c>
       <c r="F12">
-        <v>0.29520167573962247</v>
+        <v>0.12997316075106721</v>
       </c>
       <c r="G12">
-        <v>-0.13591882277042633</v>
+        <v>-0.35963160972245889</v>
       </c>
       <c r="H12">
-        <v>1.1104397098865495E-3</v>
+        <v>4.6706332258759198E-4</v>
       </c>
       <c r="I12">
-        <v>1.4515001786744366</v>
+        <v>23.039863525769317</v>
       </c>
       <c r="J12">
-        <v>-13.53213257666353</v>
+        <v>-26.438780634427296</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -909,34 +913,34 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>45476.588506944441</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C13">
-        <v>141.44999999999999</v>
+        <v>380</v>
       </c>
       <c r="D13">
-        <v>4352985</v>
+        <v>1639650</v>
       </c>
       <c r="E13">
-        <v>217429980</v>
+        <v>58924650</v>
       </c>
       <c r="F13">
-        <v>0.25139499421237271</v>
+        <v>0.12980051032256901</v>
       </c>
       <c r="G13">
-        <v>0.76107493325497921</v>
+        <v>0.59266704057365982</v>
       </c>
       <c r="H13">
-        <v>1.8425155622090684E-3</v>
+        <v>4.8537399774171422E-4</v>
       </c>
       <c r="I13">
-        <v>2.0762029138460525</v>
+        <v>23.91130967551873</v>
       </c>
       <c r="J13">
-        <v>-23.68992808691192</v>
+        <v>-36.669638339268481</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
@@ -944,34 +948,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>45476.588564814818</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>262.25</v>
       </c>
       <c r="D14">
-        <v>11870310</v>
+        <v>1857420</v>
       </c>
       <c r="E14">
-        <v>300561015</v>
+        <v>66306720</v>
       </c>
       <c r="F14">
-        <v>0.25139499421237271</v>
+        <v>0.12980051032256901</v>
       </c>
       <c r="G14">
-        <v>-0.24507058642817525</v>
+        <v>-0.40733295942634018</v>
       </c>
       <c r="H14">
-        <v>1.8795020273140854E-3</v>
+        <v>4.8537399774171422E-4</v>
       </c>
       <c r="I14">
-        <v>2.092197676361363</v>
+        <v>23.91130967551873</v>
       </c>
       <c r="J14">
-        <v>-24.3438105506334</v>
+        <v>-27.063128887188959</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -979,34 +983,34 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>45476.588587962964</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C15">
-        <v>62.6</v>
+        <v>323</v>
       </c>
       <c r="D15">
-        <v>6939705</v>
+        <v>967500</v>
       </c>
       <c r="E15">
-        <v>265027695</v>
+        <v>40641315</v>
       </c>
       <c r="F15">
-        <v>0.20814727781275436</v>
+        <v>0.12978382798570434</v>
       </c>
       <c r="G15">
-        <v>0.5437976660629209</v>
+        <v>0.54346678575267449</v>
       </c>
       <c r="H15">
-        <v>2.8629247029235585E-3</v>
+        <v>4.9599375743291578E-4</v>
       </c>
       <c r="I15">
-        <v>2.6386631533158216</v>
+        <v>24.431337736954678</v>
       </c>
       <c r="J15">
-        <v>-48.047596354921644</v>
+        <v>-36.876493391285258</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
@@ -1014,34 +1018,34 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>45476.588587962964</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="D16">
-        <v>9325305</v>
+        <v>726345</v>
       </c>
       <c r="E16">
-        <v>224106780</v>
+        <v>39688230</v>
       </c>
       <c r="F16">
-        <v>0.20814727781275436</v>
+        <v>0.12978382798570434</v>
       </c>
       <c r="G16">
-        <v>-0.4562023339370791</v>
+        <v>-0.45653321424732551</v>
       </c>
       <c r="H16">
-        <v>2.8629247029235585E-3</v>
+        <v>4.9599375743291578E-4</v>
       </c>
       <c r="I16">
-        <v>2.6386631533158216</v>
+        <v>24.431337736954678</v>
       </c>
       <c r="J16">
-        <v>-48.047596354928558</v>
+        <v>-27.251685825963687</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -1049,34 +1053,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>45476.588587962964</v>
+        <v>45478.645833333336</v>
       </c>
       <c r="C17">
-        <v>25.8</v>
+        <v>275</v>
       </c>
       <c r="D17">
-        <v>9794280</v>
+        <v>992025</v>
       </c>
       <c r="E17">
-        <v>323572740</v>
+        <v>32642385</v>
       </c>
       <c r="F17">
-        <v>0.22424548190705848</v>
+        <v>0.1296175494659102</v>
       </c>
       <c r="G17">
-        <v>0.28521998510671137</v>
+        <v>0.49365770458234537</v>
       </c>
       <c r="H17">
-        <v>2.2760136694235209E-3</v>
+        <v>4.9953525588265258E-4</v>
       </c>
       <c r="I17">
-        <v>2.2599657575340508</v>
+        <v>24.574257733055862</v>
       </c>
       <c r="J17">
-        <v>-26.491287160324251</v>
+        <v>-36.550409553383638</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
@@ -1084,31 +1088,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>45476.588530092595</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C18">
-        <v>109.4</v>
+        <v>360</v>
+      </c>
+      <c r="D18">
+        <v>500670</v>
       </c>
       <c r="E18">
-        <v>129825540</v>
+        <v>25625745</v>
       </c>
       <c r="F18">
-        <v>0.22424548190705848</v>
+        <v>0.1296175494659102</v>
       </c>
       <c r="G18">
-        <v>-0.70790707361298888</v>
+        <v>-0.50634229541765463</v>
       </c>
       <c r="H18">
-        <v>2.2877497745392959E-3</v>
+        <v>4.9953525588265258E-4</v>
       </c>
       <c r="I18">
-        <v>2.2993744455664782</v>
+        <v>24.574257733055862</v>
       </c>
       <c r="J18">
-        <v>-27.522879996226877</v>
+        <v>-26.907303874820009</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -1116,34 +1123,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>45476.588553240741</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C19">
-        <v>11.8</v>
+        <v>235</v>
       </c>
       <c r="D19">
-        <v>6567045</v>
+        <v>737940</v>
       </c>
       <c r="E19">
-        <v>247784520</v>
+        <v>24328860</v>
       </c>
       <c r="F19">
-        <v>0.25088897948957906</v>
+        <v>0.12993245907412695</v>
       </c>
       <c r="G19">
-        <v>0.13866780138411813</v>
+        <v>0.44414303795095045</v>
       </c>
       <c r="H19">
-        <v>1.3244840466802336E-3</v>
+        <v>4.9349445140391623E-4</v>
       </c>
       <c r="I19">
-        <v>1.4715691199097121</v>
+        <v>24.336066826406807</v>
       </c>
       <c r="J19">
-        <v>-11.753441383087004</v>
+        <v>-35.849361816362233</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
@@ -1151,34 +1158,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>45476.588437500002</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C20">
-        <v>194.45</v>
+        <v>420.6</v>
       </c>
       <c r="D20">
-        <v>1375425</v>
+        <v>287265</v>
       </c>
       <c r="E20">
-        <v>46390920</v>
+        <v>16194150</v>
       </c>
       <c r="F20">
-        <v>0.25201288632680846</v>
+        <v>0.12993245907412695</v>
       </c>
       <c r="G20">
-        <v>-0.86723982626670426</v>
+        <v>-0.55585696204904955</v>
       </c>
       <c r="H20">
-        <v>1.2723028329619677E-3</v>
+        <v>4.9349445140391623E-4</v>
       </c>
       <c r="I20">
-        <v>1.4367876965318218</v>
+        <v>24.336066826406807</v>
       </c>
       <c r="J20">
-        <v>-11.256113947226112</v>
+        <v>-26.187958024556554</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
@@ -1186,34 +1193,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>45476.588587962964</v>
+        <v>45478.645752314813</v>
       </c>
       <c r="C21">
-        <v>5.45</v>
+        <v>198.55</v>
       </c>
       <c r="D21">
-        <v>4552335</v>
+        <v>583470</v>
       </c>
       <c r="E21">
-        <v>204051915</v>
+        <v>15313890</v>
       </c>
       <c r="F21">
-        <v>0.28424718838697471</v>
+        <v>0.13090016304488719</v>
       </c>
       <c r="G21">
-        <v>6.672154712923016E-2</v>
+        <v>0.39324281083706669</v>
       </c>
       <c r="H21">
-        <v>6.8406864564238864E-4</v>
+        <v>4.7694162751779113E-4</v>
       </c>
       <c r="I21">
-        <v>0.86099207440758696</v>
+        <v>23.689102098246359</v>
       </c>
       <c r="J21">
-        <v>-5.5272873689026829</v>
+        <v>-34.754556843320252</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
@@ -1221,34 +1228,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>45476.588391203702</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C22">
-        <v>287.39999999999998</v>
+        <v>479.65</v>
       </c>
       <c r="D22">
-        <v>427410</v>
+        <v>276315</v>
       </c>
       <c r="E22">
-        <v>17059275</v>
+        <v>7103025</v>
       </c>
       <c r="F22">
-        <v>0.28472805845380855</v>
+        <v>0.13071725598466827</v>
       </c>
       <c r="G22">
-        <v>-0.93141890115315917</v>
+        <v>-0.6038038882295429</v>
       </c>
       <c r="H22">
-        <v>6.9337499812920187E-4</v>
+        <v>4.7852933229288434E-4</v>
       </c>
       <c r="I22">
-        <v>0.88479613453411787</v>
+        <v>23.740613826272966</v>
       </c>
       <c r="J22">
-        <v>-5.7531525004156379</v>
+        <v>-25.127404003647825</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -1256,34 +1263,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>45476.588541666664</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C23">
-        <v>3.55</v>
+        <v>167.95</v>
       </c>
       <c r="D23">
-        <v>8314935</v>
+        <v>2284080</v>
       </c>
       <c r="E23">
-        <v>318253605</v>
+        <v>39924225</v>
       </c>
       <c r="F23">
-        <v>0.32675953774593225</v>
+        <v>0.13161610216329228</v>
       </c>
       <c r="G23">
-        <v>3.9165917261864865E-2</v>
+        <v>0.35052852461548145</v>
       </c>
       <c r="H23">
-        <v>3.8725969558051413E-4</v>
+        <v>4.5706062469655915E-4</v>
       </c>
       <c r="I23">
-        <v>0.56706711349311345</v>
+        <v>22.831439339678486</v>
       </c>
       <c r="J23">
-        <v>-3.4422749058259532</v>
+        <v>-33.390124338886721</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
@@ -1291,34 +1298,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>45476.588437500002</v>
+        <v>45478.645532407405</v>
       </c>
       <c r="C24">
-        <v>386.15</v>
+        <v>551.79999999999995</v>
       </c>
       <c r="D24">
-        <v>463005</v>
+        <v>932385</v>
       </c>
       <c r="E24">
-        <v>15440655</v>
+        <v>13894020</v>
       </c>
       <c r="F24">
-        <v>0.32711648120959608</v>
+        <v>0.13199267729709926</v>
       </c>
       <c r="G24">
-        <v>-0.96028099182364834</v>
+        <v>-0.64790863624538941</v>
       </c>
       <c r="H24">
-        <v>3.9126800152336282E-4</v>
+        <v>4.5646871838250357E-4</v>
       </c>
       <c r="I24">
-        <v>0.57358396314072613</v>
+        <v>22.869284229202584</v>
       </c>
       <c r="J24">
-        <v>-3.5020749333077106</v>
+        <v>-23.842944482737945</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -1326,34 +1333,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>45476.588483796295</v>
+        <v>45478.64571759259</v>
       </c>
       <c r="C25">
-        <v>2.25</v>
+        <v>140.25</v>
       </c>
       <c r="D25">
-        <v>3430695</v>
+        <v>1185375</v>
       </c>
       <c r="E25">
-        <v>179874360</v>
+        <v>15266355</v>
       </c>
       <c r="F25">
-        <v>0.3663391278048046</v>
+        <v>0.13280971752630533</v>
       </c>
       <c r="G25">
-        <v>2.5240467760368642E-2</v>
+        <v>0.30669808663247755</v>
       </c>
       <c r="H25">
-        <v>2.4022121802049818E-4</v>
+        <v>4.2919135177521588E-4</v>
       </c>
       <c r="I25">
-        <v>0.39443200695467312</v>
+        <v>21.631257290570662</v>
       </c>
       <c r="J25">
-        <v>-2.338275558391667</v>
+        <v>-31.651779746569574</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
@@ -1361,31 +1368,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>45476.588472222225</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C26">
-        <v>483.15</v>
+        <v>622.04999999999995</v>
+      </c>
+      <c r="D26">
+        <v>379920</v>
       </c>
       <c r="E26">
-        <v>2885685</v>
+        <v>3291255</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.13260380285355713</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-0.69229560672143631</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4.3045391497842464E-4</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>21.663723224239117</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-21.943772768304388</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
@@ -1393,34 +1403,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>45476.588541666664</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C27">
-        <v>1.4</v>
+        <v>117.95</v>
       </c>
       <c r="D27">
-        <v>4071255</v>
+        <v>1328835</v>
       </c>
       <c r="E27">
-        <v>180589365</v>
+        <v>17702205</v>
       </c>
       <c r="F27">
-        <v>0.40058288980355422</v>
+        <v>0.13357448878691588</v>
       </c>
       <c r="G27">
-        <v>1.4844605841434853E-2</v>
+        <v>0.26797693665396638</v>
       </c>
       <c r="H27">
-        <v>1.3996486202203599E-4</v>
+        <v>4.0028961089017874E-4</v>
       </c>
       <c r="I27">
-        <v>0.25125534211969142</v>
+        <v>20.293095381777686</v>
       </c>
       <c r="J27">
-        <v>-1.4075564216365362</v>
+        <v>-29.661593918189844</v>
       </c>
       <c r="K27" t="s">
         <v>11</v>
@@ -1428,31 +1438,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>45476.588530092595</v>
+        <v>45478.64576388889</v>
       </c>
       <c r="C28">
-        <v>583.95000000000005</v>
+        <v>697.85</v>
+      </c>
+      <c r="D28">
+        <v>261975</v>
       </c>
       <c r="E28">
-        <v>971595</v>
+        <v>2121660</v>
       </c>
       <c r="F28">
-        <v>0.40058288980355422</v>
+        <v>0.13372133911110798</v>
       </c>
       <c r="G28">
-        <v>-0.98508527035502824</v>
+        <v>-0.73239316284037947</v>
       </c>
       <c r="H28">
-        <v>1.4053185288235423E-4</v>
+        <v>3.9958309285909228E-4</v>
       </c>
       <c r="I28">
-        <v>0.2522779151226851</v>
+        <v>20.278392462057358</v>
       </c>
       <c r="J28">
-        <v>-1.4149967133683958</v>
+        <v>-19.933513730975459</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -1460,34 +1473,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>45476.588599537034</v>
+        <v>45478.645856481482</v>
       </c>
       <c r="C29">
-        <v>1.1000000000000001</v>
+        <v>97.55</v>
       </c>
       <c r="D29">
-        <v>2670405</v>
+        <v>752430</v>
       </c>
       <c r="E29">
-        <v>153751365</v>
+        <v>14001495</v>
       </c>
       <c r="F29">
-        <v>0.44322141240962953</v>
+        <v>0.1348741556356558</v>
       </c>
       <c r="G29">
-        <v>1.0590642908356747E-2</v>
+        <v>0.23215050014211897</v>
       </c>
       <c r="H29">
-        <v>9.5004208065733087E-5</v>
+        <v>3.6734356242006523E-4</v>
       </c>
       <c r="I29">
-        <v>0.18645192290898685</v>
+        <v>18.804060055787129</v>
       </c>
       <c r="J29">
-        <v>-1.0631334966461439</v>
+        <v>-27.575901035351027</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
@@ -1495,34 +1508,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>45476.588564814818</v>
+        <v>45478.733391203707</v>
       </c>
       <c r="C30">
-        <v>683.2</v>
+        <v>777.8</v>
       </c>
       <c r="D30">
-        <v>107520</v>
+        <v>144675</v>
       </c>
       <c r="E30">
-        <v>547620</v>
+        <v>1001520</v>
       </c>
       <c r="F30">
-        <v>0.39645515268066023</v>
+        <v>0.1348741556356558</v>
       </c>
       <c r="G30">
-        <v>-0.99531256759247222</v>
+        <v>-0.76784949985788109</v>
       </c>
       <c r="H30">
-        <v>5.1750752673147032E-5</v>
+        <v>3.6734356242006523E-4</v>
       </c>
       <c r="I30">
-        <v>9.0828905638317123E-2</v>
+        <v>18.804060055787129</v>
       </c>
       <c r="J30">
-        <v>-0.38789067031530067</v>
+        <v>-17.823006677335066</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/algotrading2024/interactive broker option june 0dte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7520B4-FF13-D442-9729-593BE06E2E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9656198-F33D-774D-9C95-FDFC8F33197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D982C202-C228-B943-9008-7F4E1271915D}"/>
   </bookViews>
@@ -76,36 +76,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>BANKNIFTY2471052500CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052500PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052600CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052600PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052700CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052700PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052800CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052800PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052900CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052900PE</t>
-  </si>
-  <si>
     <t>BANKNIFTY2471053000CE</t>
   </si>
   <si>
@@ -130,34 +100,64 @@
     <t>BANKNIFTY2471053300PE</t>
   </si>
   <si>
-    <t>BANKNIFTY2471052000CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052000PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052100CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052100PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052200CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052200PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052300CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052300PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052400CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY2471052400PE</t>
+    <t>SPY   240711C00557000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00557000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00558000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00558000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00559000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00559000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00560000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00560000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00561000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00561000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00562000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00562000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00563000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00563000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00564000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00564000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00565000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00565000</t>
+  </si>
+  <si>
+    <t>SPY   240711C00566000</t>
+  </si>
+  <si>
+    <t>SPY   240711P00566000</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,34 +563,34 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>45478.733402777776</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C3">
-        <v>716.4</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D3">
-        <v>451890</v>
+        <v>2328</v>
       </c>
       <c r="E3">
-        <v>6962205</v>
+        <v>179</v>
       </c>
       <c r="F3">
-        <v>0.13309106718423597</v>
+        <v>0.21683890181402601</v>
       </c>
       <c r="G3">
-        <v>0.80046480928079045</v>
+        <v>0.91086532919923435</v>
       </c>
       <c r="H3">
-        <v>3.4097067557545724E-4</v>
+        <v>4.8339943534398314E-2</v>
       </c>
       <c r="I3">
-        <v>17.223301131650171</v>
+        <v>2.6062030442886019E-2</v>
       </c>
       <c r="J3">
-        <v>-30.494389764489451</v>
+        <v>-0.13884555621290051</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -598,34 +598,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>1710945</v>
+        <v>9297</v>
       </c>
       <c r="E4">
-        <v>42022695</v>
+        <v>6136</v>
       </c>
       <c r="F4">
-        <v>0.13309106718423597</v>
+        <v>0.21683890181402601</v>
       </c>
       <c r="G4">
-        <v>-0.19953519071920955</v>
+        <v>-8.9703707023302368E-2</v>
       </c>
       <c r="H4">
-        <v>3.4097067557545724E-4</v>
+        <v>4.8579204168804263E-2</v>
       </c>
       <c r="I4">
-        <v>17.223301131650171</v>
+        <v>2.6064932675840813E-2</v>
       </c>
       <c r="J4">
-        <v>-20.979370878620216</v>
+        <v>-0.13988640601683092</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -633,34 +633,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>45478.645856481482</v>
+        <v>45484.798495370371</v>
       </c>
       <c r="C5">
-        <v>638.4</v>
+        <v>3.63</v>
       </c>
       <c r="D5">
-        <v>136155</v>
+        <v>4691</v>
       </c>
       <c r="E5">
-        <v>2439315</v>
+        <v>1233</v>
       </c>
       <c r="F5">
-        <v>0.13171943766612088</v>
+        <v>0.20956813628948465</v>
       </c>
       <c r="G5">
-        <v>0.76647581167892431</v>
+        <v>0.86118146314488619</v>
       </c>
       <c r="H5">
-        <v>3.7737652323703146E-4</v>
+        <v>6.8696085181191968E-2</v>
       </c>
       <c r="I5">
-        <v>18.865799053981394</v>
+        <v>3.3249223831338437E-2</v>
       </c>
       <c r="J5">
-        <v>-32.108454457951126</v>
+        <v>-0.22945859002829483</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -668,34 +668,34 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798483796294</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>381915</v>
+        <v>8188</v>
       </c>
       <c r="E6">
-        <v>16694400</v>
+        <v>7879</v>
       </c>
       <c r="F6">
-        <v>0.13171943766612088</v>
+        <v>0.20956813628948465</v>
       </c>
       <c r="G6">
-        <v>-0.23352418832107569</v>
+        <v>-0.13891781146243737</v>
       </c>
       <c r="H6">
-        <v>3.7737652323703146E-4</v>
+        <v>6.875458710691626E-2</v>
       </c>
       <c r="I6">
-        <v>18.865799053981394</v>
+        <v>3.3258575052859202E-2</v>
       </c>
       <c r="J6">
-        <v>-22.575137458839841</v>
+        <v>-0.22960521227055494</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -703,34 +703,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>45478.645775462966</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C7">
-        <v>570</v>
+        <v>2.85</v>
       </c>
       <c r="D7">
-        <v>244965</v>
+        <v>5958</v>
       </c>
       <c r="E7">
-        <v>7107075</v>
+        <v>858</v>
       </c>
       <c r="F7">
-        <v>0.13077338822171311</v>
+        <v>0.20568197175551575</v>
       </c>
       <c r="G7">
-        <v>0.72915838403860089</v>
+        <v>0.78340038110964538</v>
       </c>
       <c r="H7">
-        <v>4.1102946173338285E-4</v>
+        <v>9.3041691142065897E-2</v>
       </c>
       <c r="I7">
-        <v>20.402530773982825</v>
+        <v>4.7841493993678874E-2</v>
       </c>
       <c r="J7">
-        <v>-33.593572865975659</v>
+        <v>-0.39368779959272926</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -738,34 +738,34 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
-        <v>45478.645833333336</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C8">
-        <v>152.15</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>564390</v>
+        <v>8174</v>
       </c>
       <c r="E8">
-        <v>24480555</v>
+        <v>9036</v>
       </c>
       <c r="F8">
-        <v>0.13077338822171311</v>
+        <v>0.20568197175551575</v>
       </c>
       <c r="G8">
-        <v>-0.27187018699009469</v>
+        <v>-0.21679163182249195</v>
       </c>
       <c r="H8">
-        <v>4.1182613533775192E-4</v>
+        <v>9.3139665297934215E-2</v>
       </c>
       <c r="I8">
-        <v>20.440133961889291</v>
+        <v>4.7845663386776704E-2</v>
       </c>
       <c r="J8">
-        <v>-24.081210932806435</v>
+        <v>-0.39400596480689731</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -773,34 +773,34 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>45478.733402777776</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C9">
-        <v>495</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>375360</v>
+        <v>6847</v>
       </c>
       <c r="E9">
-        <v>18183750</v>
+        <v>2249</v>
       </c>
       <c r="F9">
-        <v>0.13005671264644256</v>
+        <v>0.19898520452341228</v>
       </c>
       <c r="G9">
-        <v>0.68605729234501078</v>
+        <v>0.68455495378208708</v>
       </c>
       <c r="H9">
-        <v>4.4272664590748402E-4</v>
+        <v>0.11630884555354178</v>
       </c>
       <c r="I9">
-        <v>21.853393755572565</v>
+        <v>5.4104434735355422E-2</v>
       </c>
       <c r="J9">
-        <v>-34.931713096543398</v>
+        <v>-0.62850276980718434</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -808,34 +808,34 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.79855324074</v>
       </c>
       <c r="C10">
-        <v>187</v>
+        <v>0.66</v>
       </c>
       <c r="D10">
-        <v>843840</v>
+        <v>8631</v>
       </c>
       <c r="E10">
-        <v>35021940</v>
+        <v>13710</v>
       </c>
       <c r="F10">
-        <v>0.13005671264644256</v>
+        <v>0.19898520452341228</v>
       </c>
       <c r="G10">
-        <v>-0.31394270765498922</v>
+        <v>-0.31803727655564967</v>
       </c>
       <c r="H10">
-        <v>4.4272664590748402E-4</v>
+        <v>0.11684714448746639</v>
       </c>
       <c r="I10">
-        <v>21.853393755572565</v>
+        <v>5.4117949412332944E-2</v>
       </c>
       <c r="J10">
-        <v>-25.361799870947998</v>
+        <v>-0.63511088608455157</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -843,34 +843,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>45478.645833333336</v>
+        <v>45484.79855324074</v>
       </c>
       <c r="C11">
-        <v>436</v>
+        <v>1.44</v>
       </c>
       <c r="D11">
-        <v>466440</v>
+        <v>6337</v>
       </c>
       <c r="E11">
-        <v>29430315</v>
+        <v>9451</v>
       </c>
       <c r="F11">
-        <v>0.12997316075106721</v>
+        <v>0.19619555684055145</v>
       </c>
       <c r="G11">
-        <v>0.64036839027754111</v>
+        <v>0.55938395180371969</v>
       </c>
       <c r="H11">
-        <v>4.6706332258759198E-4</v>
+        <v>0.13097996913779325</v>
       </c>
       <c r="I11">
-        <v>23.039863525769317</v>
+        <v>6.1203030799807046E-2</v>
       </c>
       <c r="J11">
-        <v>-36.026991973264757</v>
+        <v>-0.99854267519218243</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -878,34 +878,34 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
-        <v>45478.733402777776</v>
+        <v>45484.798530092594</v>
       </c>
       <c r="C12">
-        <v>222.5</v>
+        <v>1.01</v>
       </c>
       <c r="D12">
-        <v>793185</v>
+        <v>4269</v>
       </c>
       <c r="E12">
-        <v>38208375</v>
+        <v>12324</v>
       </c>
       <c r="F12">
-        <v>0.12997316075106721</v>
+        <v>0.19619555684055145</v>
       </c>
       <c r="G12">
-        <v>-0.35963160972245889</v>
+        <v>-0.44177023403279991</v>
       </c>
       <c r="H12">
-        <v>4.6706332258759198E-4</v>
+        <v>0.1312187317358135</v>
       </c>
       <c r="I12">
-        <v>23.039863525769317</v>
+        <v>6.1202670845946994E-2</v>
       </c>
       <c r="J12">
-        <v>-26.438780634427296</v>
+        <v>-1.0017634079111972</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -913,34 +913,34 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798564814817</v>
       </c>
       <c r="C13">
-        <v>380</v>
+        <v>0.93</v>
       </c>
       <c r="D13">
-        <v>1639650</v>
+        <v>6462</v>
       </c>
       <c r="E13">
-        <v>58924650</v>
+        <v>21278</v>
       </c>
       <c r="F13">
-        <v>0.12980051032256901</v>
+        <v>0.19319365282309656</v>
       </c>
       <c r="G13">
-        <v>0.59266704057365982</v>
+        <v>0.42652940995564137</v>
       </c>
       <c r="H13">
-        <v>4.8537399774171422E-4</v>
+        <v>0.13271984215228769</v>
       </c>
       <c r="I13">
-        <v>23.91130967551873</v>
+        <v>6.1407345367968325E-2</v>
       </c>
       <c r="J13">
-        <v>-36.669638339268481</v>
+        <v>-0.92753953975188785</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>
@@ -948,34 +948,34 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.79855324074</v>
       </c>
       <c r="C14">
-        <v>262.25</v>
+        <v>1.49</v>
       </c>
       <c r="D14">
-        <v>1857420</v>
+        <v>2069</v>
       </c>
       <c r="E14">
-        <v>66306720</v>
+        <v>5398</v>
       </c>
       <c r="F14">
-        <v>0.12980051032256901</v>
+        <v>0.19319365282309656</v>
       </c>
       <c r="G14">
-        <v>-0.40733295942634018</v>
+        <v>-0.57424270161402013</v>
       </c>
       <c r="H14">
-        <v>4.8537399774171422E-4</v>
+        <v>0.13302125270316625</v>
       </c>
       <c r="I14">
-        <v>23.91130967551873</v>
+        <v>6.1347700415709694E-2</v>
       </c>
       <c r="J14">
-        <v>-27.063128887188959</v>
+        <v>-0.90602430286456226</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -983,34 +983,34 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C15">
-        <v>323</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D15">
-        <v>967500</v>
+        <v>7018</v>
       </c>
       <c r="E15">
-        <v>40641315</v>
+        <v>16894</v>
       </c>
       <c r="F15">
-        <v>0.12978382798570434</v>
+        <v>0.19118053094821377</v>
       </c>
       <c r="G15">
-        <v>0.54346678575267449</v>
+        <v>0.30201493027836779</v>
       </c>
       <c r="H15">
-        <v>4.9599375743291578E-4</v>
+        <v>0.11874114820454922</v>
       </c>
       <c r="I15">
-        <v>24.431337736954678</v>
+        <v>5.4646623922979809E-2</v>
       </c>
       <c r="J15">
-        <v>-36.876493391285258</v>
+        <v>-0.56610136820337509</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
@@ -1018,34 +1018,34 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.79855324074</v>
       </c>
       <c r="C16">
-        <v>309</v>
+        <v>2.1</v>
       </c>
       <c r="D16">
-        <v>726345</v>
+        <v>458</v>
       </c>
       <c r="E16">
-        <v>39688230</v>
+        <v>490</v>
       </c>
       <c r="F16">
-        <v>0.12978382798570434</v>
+        <v>0.19118053094821377</v>
       </c>
       <c r="G16">
-        <v>-0.45653321424732551</v>
+        <v>-0.70150187761610805</v>
       </c>
       <c r="H16">
-        <v>4.9599375743291578E-4</v>
+        <v>0.11872533368044971</v>
       </c>
       <c r="I16">
-        <v>24.431337736954678</v>
+        <v>5.4558426728517961E-2</v>
       </c>
       <c r="J16">
-        <v>-27.251685825963687</v>
+        <v>-0.53918183717249768</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -1053,34 +1053,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>45478.645833333336</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C17">
-        <v>275</v>
+        <v>0.31</v>
       </c>
       <c r="D17">
-        <v>992025</v>
+        <v>9875</v>
       </c>
       <c r="E17">
-        <v>32642385</v>
+        <v>9223</v>
       </c>
       <c r="F17">
-        <v>0.1296175494659102</v>
+        <v>0.19239769608052282</v>
       </c>
       <c r="G17">
-        <v>0.49365770458234537</v>
+        <v>0.19711744089849681</v>
       </c>
       <c r="H17">
-        <v>4.9953525588265258E-4</v>
+        <v>9.3911622736764136E-2</v>
       </c>
       <c r="I17">
-        <v>24.574257733055862</v>
+        <v>4.1418380515839515E-2</v>
       </c>
       <c r="J17">
-        <v>-36.550409553383638</v>
+        <v>-0.32506747486962029</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
@@ -1088,34 +1088,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798506944448</v>
       </c>
       <c r="C18">
-        <v>360</v>
+        <v>2.93</v>
       </c>
       <c r="D18">
-        <v>500670</v>
+        <v>588</v>
       </c>
       <c r="E18">
-        <v>25625745</v>
+        <v>109</v>
       </c>
       <c r="F18">
-        <v>0.1296175494659102</v>
+        <v>0.19239769608052282</v>
       </c>
       <c r="G18">
-        <v>-0.50634229541765463</v>
+        <v>-0.80620555919330372</v>
       </c>
       <c r="H18">
-        <v>4.9953525588265258E-4</v>
+        <v>9.3814961069018363E-2</v>
       </c>
       <c r="I18">
-        <v>24.574257733055862</v>
+        <v>4.1276669200968286E-2</v>
       </c>
       <c r="J18">
-        <v>-26.907303874820009</v>
+        <v>-0.30195870010660597</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -1123,34 +1123,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798564814817</v>
       </c>
       <c r="C19">
-        <v>235</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>737940</v>
+        <v>14486</v>
       </c>
       <c r="E19">
-        <v>24328860</v>
+        <v>10964</v>
       </c>
       <c r="F19">
-        <v>0.12993245907412695</v>
+        <v>0.1955945213549368</v>
       </c>
       <c r="G19">
-        <v>0.44414303795095045</v>
+        <v>0.11993871886727515</v>
       </c>
       <c r="H19">
-        <v>4.9349445140391623E-4</v>
+        <v>6.6671505357217234E-2</v>
       </c>
       <c r="I19">
-        <v>24.336066826406807</v>
+        <v>3.3993065518067883E-2</v>
       </c>
       <c r="J19">
-        <v>-35.849361816362233</v>
+        <v>-0.1777809787974883</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
@@ -1158,34 +1158,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45484.798576388886</v>
+      </c>
+      <c r="C20">
+        <v>3.73</v>
+      </c>
+      <c r="D20">
+        <v>533</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>45478.733391203707</v>
-      </c>
-      <c r="C20">
-        <v>420.6</v>
-      </c>
-      <c r="D20">
-        <v>287265</v>
-      </c>
-      <c r="E20">
-        <v>16194150</v>
-      </c>
       <c r="F20">
-        <v>0.12993245907412695</v>
+        <v>0.1955945213549368</v>
       </c>
       <c r="G20">
-        <v>-0.55585696204904955</v>
+        <v>-0.88200330584141562</v>
       </c>
       <c r="H20">
-        <v>4.9349445140391623E-4</v>
+        <v>6.7173120468295169E-2</v>
       </c>
       <c r="I20">
-        <v>24.336066826406807</v>
+        <v>3.3561179610976932E-2</v>
       </c>
       <c r="J20">
-        <v>-26.187958024556554</v>
+        <v>-0.15997681227923222</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
@@ -1193,34 +1193,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
-        <v>45478.645752314813</v>
+        <v>45484.798564814817</v>
       </c>
       <c r="C21">
-        <v>198.55</v>
+        <v>0.09</v>
       </c>
       <c r="D21">
-        <v>583470</v>
+        <v>11752</v>
       </c>
       <c r="E21">
-        <v>15313890</v>
+        <v>9267</v>
       </c>
       <c r="F21">
-        <v>0.13090016304488719</v>
+        <v>0.1979725459897938</v>
       </c>
       <c r="G21">
-        <v>0.39324281083706669</v>
+        <v>6.8892962695820403E-2</v>
       </c>
       <c r="H21">
-        <v>4.7694162751779113E-4</v>
+        <v>4.3527776314057354E-2</v>
       </c>
       <c r="I21">
-        <v>23.689102098246359</v>
+        <v>2.0209844640693558E-2</v>
       </c>
       <c r="J21">
-        <v>-34.754556843320252</v>
+        <v>-9.3032790881543204E-2</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
@@ -1228,34 +1228,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
-        <v>45478.733391203707</v>
+        <v>45484.798576388886</v>
       </c>
       <c r="C22">
-        <v>479.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D22">
-        <v>276315</v>
+        <v>913</v>
       </c>
       <c r="E22">
-        <v>7103025</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>0.13071725598466827</v>
+        <v>0.1979725459897938</v>
       </c>
       <c r="G22">
-        <v>-0.6038038882295429</v>
+        <v>-0.93348754702124559</v>
       </c>
       <c r="H22">
-        <v>4.7852933229288434E-4</v>
+        <v>4.4072543425905504E-2</v>
       </c>
       <c r="I22">
-        <v>23.740613826272966</v>
+        <v>1.9769602918360718E-2</v>
       </c>
       <c r="J22">
-        <v>-25.127404003647825</v>
+        <v>-7.7167027012194467E-2</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
         <v>45478.733391203707</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>45478.645532407405</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2">
         <v>45478.64571759259</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
         <v>45478.733391203707</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
         <v>45478.733391203707</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2">
         <v>45478.64576388889</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>45478.645856481482</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2">
         <v>45478.733391203707</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/algotrading2024/interactive broker option june 0dte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9656198-F33D-774D-9C95-FDFC8F33197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DCD86-2B18-D54E-8FEB-5E0DAA02836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D982C202-C228-B943-9008-7F4E1271915D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -100,64 +100,64 @@
     <t>BANKNIFTY2471053300PE</t>
   </si>
   <si>
-    <t>SPY   240711C00557000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00557000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00558000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00558000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00559000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00559000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00560000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00560000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00561000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00561000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00562000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00562000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00563000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00563000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00564000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00564000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00565000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00565000</t>
-  </si>
-  <si>
-    <t>SPY   240711C00566000</t>
-  </si>
-  <si>
-    <t>SPY   240711P00566000</t>
+    <t>SPY   240718C00554000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00554000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00555000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00555000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00556000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00556000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00557000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00557000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00558000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00558000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00559000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00559000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00560000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00560000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00561000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00561000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00562000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00562000</t>
+  </si>
+  <si>
+    <t>SPY   240718C00563000</t>
+  </si>
+  <si>
+    <t>SPY   240718P00563000</t>
   </si>
 </sst>
 </file>
@@ -565,701 +565,121 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C3">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="D3">
-        <v>2328</v>
-      </c>
-      <c r="E3">
-        <v>179</v>
-      </c>
-      <c r="F3">
-        <v>0.21683890181402601</v>
-      </c>
-      <c r="G3">
-        <v>0.91086532919923435</v>
-      </c>
-      <c r="H3">
-        <v>4.8339943534398314E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.6062030442886019E-2</v>
-      </c>
-      <c r="J3">
-        <v>-0.13884555621290051</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C4">
-        <v>0.15</v>
-      </c>
-      <c r="D4">
-        <v>9297</v>
-      </c>
-      <c r="E4">
-        <v>6136</v>
-      </c>
-      <c r="F4">
-        <v>0.21683890181402601</v>
-      </c>
-      <c r="G4">
-        <v>-8.9703707023302368E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.8579204168804263E-2</v>
-      </c>
-      <c r="I4">
-        <v>2.6064932675840813E-2</v>
-      </c>
-      <c r="J4">
-        <v>-0.13988640601683092</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
-        <v>45484.798495370371</v>
-      </c>
-      <c r="C5">
-        <v>3.63</v>
-      </c>
-      <c r="D5">
-        <v>4691</v>
-      </c>
-      <c r="E5">
-        <v>1233</v>
-      </c>
-      <c r="F5">
-        <v>0.20956813628948465</v>
-      </c>
-      <c r="G5">
-        <v>0.86118146314488619</v>
-      </c>
-      <c r="H5">
-        <v>6.8696085181191968E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.3249223831338437E-2</v>
-      </c>
-      <c r="J5">
-        <v>-0.22945859002829483</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
-        <v>45484.798483796294</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="D6">
-        <v>8188</v>
-      </c>
-      <c r="E6">
-        <v>7879</v>
-      </c>
-      <c r="F6">
-        <v>0.20956813628948465</v>
-      </c>
-      <c r="G6">
-        <v>-0.13891781146243737</v>
-      </c>
-      <c r="H6">
-        <v>6.875458710691626E-2</v>
-      </c>
-      <c r="I6">
-        <v>3.3258575052859202E-2</v>
-      </c>
-      <c r="J6">
-        <v>-0.22960521227055494</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C7">
-        <v>2.85</v>
-      </c>
-      <c r="D7">
-        <v>5958</v>
-      </c>
-      <c r="E7">
-        <v>858</v>
-      </c>
-      <c r="F7">
-        <v>0.20568197175551575</v>
-      </c>
-      <c r="G7">
-        <v>0.78340038110964538</v>
-      </c>
-      <c r="H7">
-        <v>9.3041691142065897E-2</v>
-      </c>
-      <c r="I7">
-        <v>4.7841493993678874E-2</v>
-      </c>
-      <c r="J7">
-        <v>-0.39368779959272926</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C8">
-        <v>0.4</v>
-      </c>
-      <c r="D8">
-        <v>8174</v>
-      </c>
-      <c r="E8">
-        <v>9036</v>
-      </c>
-      <c r="F8">
-        <v>0.20568197175551575</v>
-      </c>
-      <c r="G8">
-        <v>-0.21679163182249195</v>
-      </c>
-      <c r="H8">
-        <v>9.3139665297934215E-2</v>
-      </c>
-      <c r="I8">
-        <v>4.7845663386776704E-2</v>
-      </c>
-      <c r="J8">
-        <v>-0.39400596480689731</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C9">
-        <v>2.1</v>
-      </c>
-      <c r="D9">
-        <v>6847</v>
-      </c>
-      <c r="E9">
-        <v>2249</v>
-      </c>
-      <c r="F9">
-        <v>0.19898520452341228</v>
-      </c>
-      <c r="G9">
-        <v>0.68455495378208708</v>
-      </c>
-      <c r="H9">
-        <v>0.11630884555354178</v>
-      </c>
-      <c r="I9">
-        <v>5.4104434735355422E-2</v>
-      </c>
-      <c r="J9">
-        <v>-0.62850276980718434</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2">
-        <v>45484.79855324074</v>
-      </c>
-      <c r="C10">
-        <v>0.66</v>
-      </c>
-      <c r="D10">
-        <v>8631</v>
-      </c>
-      <c r="E10">
-        <v>13710</v>
-      </c>
-      <c r="F10">
-        <v>0.19898520452341228</v>
-      </c>
-      <c r="G10">
-        <v>-0.31803727655564967</v>
-      </c>
-      <c r="H10">
-        <v>0.11684714448746639</v>
-      </c>
-      <c r="I10">
-        <v>5.4117949412332944E-2</v>
-      </c>
-      <c r="J10">
-        <v>-0.63511088608455157</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
-        <v>45484.79855324074</v>
-      </c>
-      <c r="C11">
-        <v>1.44</v>
-      </c>
-      <c r="D11">
-        <v>6337</v>
-      </c>
-      <c r="E11">
-        <v>9451</v>
-      </c>
-      <c r="F11">
-        <v>0.19619555684055145</v>
-      </c>
-      <c r="G11">
-        <v>0.55938395180371969</v>
-      </c>
-      <c r="H11">
-        <v>0.13097996913779325</v>
-      </c>
-      <c r="I11">
-        <v>6.1203030799807046E-2</v>
-      </c>
-      <c r="J11">
-        <v>-0.99854267519218243</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2">
-        <v>45484.798530092594</v>
-      </c>
-      <c r="C12">
-        <v>1.01</v>
-      </c>
-      <c r="D12">
-        <v>4269</v>
-      </c>
-      <c r="E12">
-        <v>12324</v>
-      </c>
-      <c r="F12">
-        <v>0.19619555684055145</v>
-      </c>
-      <c r="G12">
-        <v>-0.44177023403279991</v>
-      </c>
-      <c r="H12">
-        <v>0.1312187317358135</v>
-      </c>
-      <c r="I12">
-        <v>6.1202670845946994E-2</v>
-      </c>
-      <c r="J12">
-        <v>-1.0017634079111972</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2">
-        <v>45484.798564814817</v>
-      </c>
-      <c r="C13">
-        <v>0.93</v>
-      </c>
-      <c r="D13">
-        <v>6462</v>
-      </c>
-      <c r="E13">
-        <v>21278</v>
-      </c>
-      <c r="F13">
-        <v>0.19319365282309656</v>
-      </c>
-      <c r="G13">
-        <v>0.42652940995564137</v>
-      </c>
-      <c r="H13">
-        <v>0.13271984215228769</v>
-      </c>
-      <c r="I13">
-        <v>6.1407345367968325E-2</v>
-      </c>
-      <c r="J13">
-        <v>-0.92753953975188785</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2">
-        <v>45484.79855324074</v>
-      </c>
-      <c r="C14">
-        <v>1.49</v>
-      </c>
-      <c r="D14">
-        <v>2069</v>
-      </c>
-      <c r="E14">
-        <v>5398</v>
-      </c>
-      <c r="F14">
-        <v>0.19319365282309656</v>
-      </c>
-      <c r="G14">
-        <v>-0.57424270161402013</v>
-      </c>
-      <c r="H14">
-        <v>0.13302125270316625</v>
-      </c>
-      <c r="I14">
-        <v>6.1347700415709694E-2</v>
-      </c>
-      <c r="J14">
-        <v>-0.90602430286456226</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C15">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D15">
-        <v>7018</v>
-      </c>
-      <c r="E15">
-        <v>16894</v>
-      </c>
-      <c r="F15">
-        <v>0.19118053094821377</v>
-      </c>
-      <c r="G15">
-        <v>0.30201493027836779</v>
-      </c>
-      <c r="H15">
-        <v>0.11874114820454922</v>
-      </c>
-      <c r="I15">
-        <v>5.4646623922979809E-2</v>
-      </c>
-      <c r="J15">
-        <v>-0.56610136820337509</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2">
-        <v>45484.79855324074</v>
-      </c>
-      <c r="C16">
-        <v>2.1</v>
-      </c>
-      <c r="D16">
-        <v>458</v>
-      </c>
-      <c r="E16">
-        <v>490</v>
-      </c>
-      <c r="F16">
-        <v>0.19118053094821377</v>
-      </c>
-      <c r="G16">
-        <v>-0.70150187761610805</v>
-      </c>
-      <c r="H16">
-        <v>0.11872533368044971</v>
-      </c>
-      <c r="I16">
-        <v>5.4558426728517961E-2</v>
-      </c>
-      <c r="J16">
-        <v>-0.53918183717249768</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C17">
-        <v>0.31</v>
-      </c>
-      <c r="D17">
-        <v>9875</v>
-      </c>
-      <c r="E17">
-        <v>9223</v>
-      </c>
-      <c r="F17">
-        <v>0.19239769608052282</v>
-      </c>
-      <c r="G17">
-        <v>0.19711744089849681</v>
-      </c>
-      <c r="H17">
-        <v>9.3911622736764136E-2</v>
-      </c>
-      <c r="I17">
-        <v>4.1418380515839515E-2</v>
-      </c>
-      <c r="J17">
-        <v>-0.32506747486962029</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2">
-        <v>45484.798506944448</v>
-      </c>
-      <c r="C18">
-        <v>2.93</v>
-      </c>
-      <c r="D18">
-        <v>588</v>
-      </c>
-      <c r="E18">
-        <v>109</v>
-      </c>
-      <c r="F18">
-        <v>0.19239769608052282</v>
-      </c>
-      <c r="G18">
-        <v>-0.80620555919330372</v>
-      </c>
-      <c r="H18">
-        <v>9.3814961069018363E-2</v>
-      </c>
-      <c r="I18">
-        <v>4.1276669200968286E-2</v>
-      </c>
-      <c r="J18">
-        <v>-0.30195870010660597</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2">
-        <v>45484.798564814817</v>
-      </c>
-      <c r="C19">
-        <v>0.16</v>
-      </c>
-      <c r="D19">
-        <v>14486</v>
-      </c>
-      <c r="E19">
-        <v>10964</v>
-      </c>
-      <c r="F19">
-        <v>0.1955945213549368</v>
-      </c>
-      <c r="G19">
-        <v>0.11993871886727515</v>
-      </c>
-      <c r="H19">
-        <v>6.6671505357217234E-2</v>
-      </c>
-      <c r="I19">
-        <v>3.3993065518067883E-2</v>
-      </c>
-      <c r="J19">
-        <v>-0.1777809787974883</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C20">
-        <v>3.73</v>
-      </c>
-      <c r="D20">
-        <v>533</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>0.1955945213549368</v>
-      </c>
-      <c r="G20">
-        <v>-0.88200330584141562</v>
-      </c>
-      <c r="H20">
-        <v>6.7173120468295169E-2</v>
-      </c>
-      <c r="I20">
-        <v>3.3561179610976932E-2</v>
-      </c>
-      <c r="J20">
-        <v>-0.15997681227923222</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2">
-        <v>45484.798564814817</v>
-      </c>
-      <c r="C21">
-        <v>0.09</v>
-      </c>
-      <c r="D21">
-        <v>11752</v>
-      </c>
-      <c r="E21">
-        <v>9267</v>
-      </c>
-      <c r="F21">
-        <v>0.1979725459897938</v>
-      </c>
-      <c r="G21">
-        <v>6.8892962695820403E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.3527776314057354E-2</v>
-      </c>
-      <c r="I21">
-        <v>2.0209844640693558E-2</v>
-      </c>
-      <c r="J21">
-        <v>-9.3032790881543204E-2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2">
-        <v>45484.798576388886</v>
-      </c>
-      <c r="C22">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="D22">
-        <v>913</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>0.1979725459897938</v>
-      </c>
-      <c r="G22">
-        <v>-0.93348754702124559</v>
-      </c>
-      <c r="H22">
-        <v>4.4072543425905504E-2</v>
-      </c>
-      <c r="I22">
-        <v>1.9769602918360718E-2</v>
-      </c>
-      <c r="J22">
-        <v>-7.7167027012194467E-2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
